--- a/itens/item1.xlsx
+++ b/itens/item1.xlsx
@@ -1132,10 +1132,10 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="109.55"/>
@@ -1147,7 +1147,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="94.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="54.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="64.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="64.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>279313</v>
+        <v>279312</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>23</v>

--- a/itens/item1.xlsx
+++ b/itens/item1.xlsx
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>279312</v>
+        <v>279313</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>23</v>
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>279313</v>
+        <v>279312</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>33</v>
